--- a/打卡.xlsx
+++ b/打卡.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="45360" yWindow="-2140" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="88">
   <si>
     <t>研究产品</t>
     <rPh sb="0" eb="1">
@@ -743,39 +743,400 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. 别装B，少吹牛逼</t>
+    <rPh sb="3" eb="4">
+      <t>bie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhuang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>niu'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 开始P图吧</t>
+    <rPh sb="3" eb="4">
+      <t>kai'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ba</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 豆瓣2017年度电影榜单
 2. 锤子OS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 别装B，少吹牛逼</t>
-    <rPh sb="3" eb="4">
-      <t>bie</t>
-    </rPh>
+    <t>1. 锤子OS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 总结：PPT 准备
+2. 得到 - 前哨
+3. 得到 - 中国史纲50讲
+4. 得到 - 逻辑思维跨年
+5. Tony Kuyper 插件
+6. 总结：Lightroom</t>
+    <rPh sb="3" eb="4">
+      <t>zong'jie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhun'bei</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de'dao</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>qian'shao</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>de'dao</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>de'dao</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>luo'ji</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>si'wei</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>kua'nian</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>cha'jian</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>zong'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 跑步20min
+2. 哑铃60</t>
+    <rPh sb="3" eb="4">
+      <t>pao'bu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ya'ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 今天学习量挺大
+2. 包容妹子</t>
+    <rPh sb="3" eb="4">
+      <t>jin'tian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xue'xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>liang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ting'da</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bao'rong</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>mei'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 网易云音乐 - 年度总结</t>
+    <rPh sb="3" eb="4">
+      <t>wang'yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yin'yue</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nian'du</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zong'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 和人沟通时多点学习心态，少点吹牛逼心态</t>
+    <rPh sb="3" eb="4">
+      <t>he'ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gou'ton</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi'hou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>duo'dian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xue'xi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xin'tai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>chui</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>niu'bi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xin'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 得到 - 前哨
+2. 《庄子今注今译》</t>
+    <rPh sb="15" eb="16">
+      <t>zhuang'zi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jin'tian</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhu'yi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jin'tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 区块链+X？</t>
+    <rPh sb="3" eb="4">
+      <t>qu'kuai'lian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 得到 - 前哨
+2. PinDesign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 支付宝 - 年度账单
+2. 腾讯云
+3. iText</t>
+    <rPh sb="3" eb="4">
+      <t>zhi'fu'ao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>nian'du</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhang'dan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>teng'xun</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 白描
+2. TextGrabber
+3. 小日常
+4. 疯狂番茄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 《区块链：定义未来金融与经济新格局》</t>
     <rPh sb="4" eb="5">
-      <t>zhuang</t>
+      <t>qu'kuai'lian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ding'yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei'lai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jin'rong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jing'ji</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ge'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Xnip
+2. 折扇
+3. 冲顶大会</t>
+    <rPh sb="11" eb="12">
+      <t>zhe'shan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>chong'ding</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>da'hu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 榫卯</t>
+    <rPh sb="3" eb="4">
+      <t>sun'mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 跑步20min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 总结：群体心理学</t>
+    <rPh sb="3" eb="4">
+      <t>zong'jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qun'ti</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xin'li'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-10-GrandTeton&amp;YellowStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 工作事务得理一理</t>
+    <rPh sb="3" eb="4">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'wu</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>shao</t>
+      <t>dei</t>
     </rPh>
     <rPh sb="8" eb="9">
-      <t>chui</t>
+      <t>li'yi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 西窗烛</t>
+    <rPh sb="3" eb="4">
+      <t>xi'chuang'zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 得到 - 前哨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 当天没做完的事情，还是得逼自己做完</t>
+    <rPh sb="3" eb="4">
+      <t>dang'tian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zuo'wan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>niu'bi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 开始P图吧</t>
-    <rPh sb="3" eb="4">
-      <t>kai'shi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>tu</t>
+      <t>shi'qing</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zuo'wan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 小程序 - 群空间助手</t>
+    <rPh sb="3" eb="4">
+      <t>xiao'cheng'xu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qun'kong'jian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhu'shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 持续学习区块链</t>
+    <rPh sb="3" eb="4">
+      <t>chi'xu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xue'xi</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>ba</t>
+      <t>qu'kuai'lian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -856,7 +1217,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="431">
+  <cellStyleXfs count="815">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1288,8 +1649,392 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1322,13 +2067,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="431">
+  <cellStyles count="815">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1545,6 +2287,198 @@
     <cellStyle name="超链接" xfId="425" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="427" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="813" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1760,6 +2694,198 @@
     <cellStyle name="已访问的超链接" xfId="426" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="428" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="814" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2036,26 +3162,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.5" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -2247,8 +3373,8 @@
         <v>30</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="6">
-        <v>0</v>
+      <c r="H9" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>33</v>
@@ -2412,8 +3538,8 @@
         <v>14</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="6">
-        <v>0</v>
+      <c r="H16" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>42</v>
@@ -2486,7 +3612,9 @@
       <c r="F19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="8" t="s">
@@ -2512,7 +3640,9 @@
       <c r="F20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
@@ -2574,7 +3704,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>29</v>
@@ -2583,140 +3713,310 @@
         <v>41</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="6">
-        <v>0</v>
+      <c r="H23" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>43101</v>
       </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>43102</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>43103</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>43104</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>43105</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>43106</v>
       </c>
+      <c r="B29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>43107</v>
       </c>
+      <c r="B30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>43108</v>
       </c>
+      <c r="B31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>43109</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43110</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43111</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43112</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43113</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>43114</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43115</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43116</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43117</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43118</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43119</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43120</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43121</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43122</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43123</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43124</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43125</v>
       </c>

--- a/打卡.xlsx
+++ b/打卡.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45360" yWindow="-2140" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="101">
   <si>
     <t>研究产品</t>
     <rPh sb="0" eb="1">
@@ -1043,13 +1043,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <rPh sb="0" eb="1">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2014-10-GrandTeton&amp;YellowStone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1137,6 +1130,209 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>qu'kuai'lian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 日课</t>
+    <rPh sb="3" eb="4">
+      <t>ri'ke</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 走路还是要专心点</t>
+    <rPh sb="3" eb="4">
+      <t>zou'lu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hai'hsi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhuan'xin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 彩云小译</t>
+    <rPh sb="3" eb="4">
+      <t>cai'yun'xiao'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 文玩迷</t>
+    <rPh sb="3" eb="4">
+      <t>wen'wan'mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 总结：活在未来</t>
+    <rPh sb="3" eb="4">
+      <t>zong'jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huo'zai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei'lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Workflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 事务太多，效率有待提升</t>
+    <rPh sb="3" eb="4">
+      <t>shi'wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tai'duo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao'lv</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>you'dai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ti'sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 得到 - 前哨
+2. 极客时间 - 邱岳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Guadian
+2. 头脑王者</t>
+    <rPh sb="14" eb="15">
+      <t>tou'nao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wang'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 碰到紧急问题内心要镇定
+2. 身体健康第一</t>
+    <rPh sb="3" eb="4">
+      <t>peng'dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin'ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>nei'xin</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhen'ding</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shen'ti</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>jian'kang</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>di'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 晚上能不加班还是别加班了</t>
+    <rPh sb="3" eb="4">
+      <t>wan'shang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>neng'bu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jia'ban</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bie</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jia'ban</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 轻芒杂志</t>
+    <rPh sb="5" eb="6">
+      <t>za'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 旅行青蛙</t>
+    <rPh sb="3" eb="4">
+      <t>lv'xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qing'wa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 事务还是要好好安排一下，尽量不要加班这么多</t>
+    <rPh sb="3" eb="4">
+      <t>shi'wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hao'hao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>an'pai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi'xia</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jin'liang</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bu'yao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jia'ban</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zhe'me</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>duo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1217,8 +1413,370 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="815">
+  <cellStyleXfs count="1177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2070,7 +2628,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="815">
+  <cellStyles count="1177">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -2479,6 +3037,187 @@
     <cellStyle name="超链接" xfId="809" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="811" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="889" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="891" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="893" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="895" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="897" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="899" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="901" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="903" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="905" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="907" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="909" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="911" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="913" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="915" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="917" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="919" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="921" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="923" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="925" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="927" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="929" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="931" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="933" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="935" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="937" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="939" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="941" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="943" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="945" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="947" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="949" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="951" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="953" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="955" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="957" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="959" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="961" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="963" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="965" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="967" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="969" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="971" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="973" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="975" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="977" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="979" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="981" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="983" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="985" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="987" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="989" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="991" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="993" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="995" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="997" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="999" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1001" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1003" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1005" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1007" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1009" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1011" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1013" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1015" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1017" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1019" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1021" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1023" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1025" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1027" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1029" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1031" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1033" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1035" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1037" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1039" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1041" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1043" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1045" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1047" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1049" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1051" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1053" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1055" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1057" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1059" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1061" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1063" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1065" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1067" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1069" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1071" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1073" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1075" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1077" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1079" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1081" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1083" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1085" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1087" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1089" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1091" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1093" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1095" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1097" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1099" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1175" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2886,6 +3625,187 @@
     <cellStyle name="已访问的超链接" xfId="810" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="812" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="890" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="892" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="894" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="896" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="898" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="900" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="902" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="904" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="906" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="908" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="910" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="912" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="914" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="916" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="918" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="920" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="922" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="924" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="926" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="928" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="930" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="932" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="934" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="936" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="938" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="940" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="942" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="944" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="946" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="948" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="950" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="952" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="954" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="956" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="958" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="960" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="962" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="964" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="966" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="968" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="970" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="972" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="974" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="976" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="978" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="980" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="982" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="984" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="986" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="988" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="990" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="992" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="994" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="996" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="998" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1000" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1002" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1004" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1006" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1008" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1010" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1012" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1014" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1016" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1018" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1020" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1022" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1024" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1026" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1028" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1030" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1032" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1034" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1036" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1038" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1040" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1042" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1044" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1046" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1048" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1050" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1052" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1054" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1056" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1058" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1060" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1062" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1064" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1066" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1068" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1070" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1072" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1074" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1076" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1078" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1080" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1082" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1084" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1086" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1088" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1090" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1092" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1094" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1096" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1098" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1158" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1160" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1162" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1166" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1168" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1170" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1172" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1174" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1176" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3162,8 +4082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3176,7 +4096,7 @@
     <col min="6" max="6" width="41.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3222,8 +4142,8 @@
         <v>8</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="6">
-        <v>0</v>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>9</v>
@@ -3374,7 +4294,7 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>33</v>
@@ -3539,7 +4459,7 @@
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>42</v>
@@ -3719,7 +4639,7 @@
         <v>27</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>62</v>
@@ -3874,7 +4794,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>41</v>
@@ -3886,10 +4806,10 @@
         <v>27</v>
       </c>
       <c r="H30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -3900,16 +4820,16 @@
         <v>27</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>41</v>
@@ -3923,7 +4843,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>29</v>
@@ -3932,91 +4852,269 @@
         <v>41</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>43110</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>43111</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>43112</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>43113</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>43114</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>43115</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>43116</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>43117</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43118</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>43119</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>43120</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43121</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43122</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43123</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43124</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>43125</v>
       </c>
